--- a/Code/Results/Cases/Case_9_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.58233267397999</v>
+        <v>24.57276333805695</v>
       </c>
       <c r="C2">
-        <v>19.18357209903116</v>
+        <v>19.27321563741778</v>
       </c>
       <c r="D2">
-        <v>4.755790002503336</v>
+        <v>4.793451456788178</v>
       </c>
       <c r="E2">
-        <v>29.40791286559266</v>
+        <v>29.37389662638978</v>
       </c>
       <c r="F2">
-        <v>15.06475028737768</v>
+        <v>15.01621442000005</v>
       </c>
       <c r="G2">
-        <v>17.58943544072439</v>
+        <v>16.80165511890442</v>
       </c>
       <c r="H2">
-        <v>3.279917487232953</v>
+        <v>3.259037240838367</v>
       </c>
       <c r="I2">
-        <v>3.314294597992925</v>
+        <v>3.296767217673177</v>
       </c>
       <c r="J2">
-        <v>7.394600909441952</v>
+        <v>8.092431916632</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.719136818453235</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.309091183417485</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>11.62100056676114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>11.61176856665519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.99180569218223</v>
+        <v>22.99206925789202</v>
       </c>
       <c r="C3">
-        <v>18.12071254082138</v>
+        <v>18.10575558727169</v>
       </c>
       <c r="D3">
-        <v>4.538939891179936</v>
+        <v>4.560590756553987</v>
       </c>
       <c r="E3">
-        <v>27.55208701859858</v>
+        <v>27.52885695078864</v>
       </c>
       <c r="F3">
-        <v>14.67298315216375</v>
+        <v>14.6671677041906</v>
       </c>
       <c r="G3">
-        <v>17.05267912763203</v>
+        <v>16.30456308828676</v>
       </c>
       <c r="H3">
-        <v>3.04206490296724</v>
+        <v>3.028058026154302</v>
       </c>
       <c r="I3">
-        <v>3.149863027928094</v>
+        <v>3.151250418340391</v>
       </c>
       <c r="J3">
-        <v>7.432003280037409</v>
+        <v>8.107704709748607</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.950365199871996</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.609000801687949</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.56025201691407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.57488731430403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.95648210888842</v>
+        <v>21.96309808165669</v>
       </c>
       <c r="C4">
-        <v>17.44124102713247</v>
+        <v>17.35791088785954</v>
       </c>
       <c r="D4">
-        <v>4.40032562877068</v>
+        <v>4.411698199552026</v>
       </c>
       <c r="E4">
-        <v>26.3494619507165</v>
+        <v>26.33314915003594</v>
       </c>
       <c r="F4">
-        <v>14.43924932672109</v>
+        <v>14.45793790521463</v>
       </c>
       <c r="G4">
-        <v>16.73315934007887</v>
+        <v>16.00978697149173</v>
       </c>
       <c r="H4">
-        <v>2.890963933153106</v>
+        <v>2.881263228457089</v>
       </c>
       <c r="I4">
-        <v>3.046446770008081</v>
+        <v>3.059860246376701</v>
       </c>
       <c r="J4">
-        <v>7.459046173253461</v>
+        <v>8.118679854486556</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.10040927323254</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.812140018277382</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.53190765965604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.55917673501907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.51962541210247</v>
+        <v>21.52892363848287</v>
       </c>
       <c r="C5">
-        <v>17.17342461645778</v>
+        <v>17.06064849856637</v>
       </c>
       <c r="D5">
-        <v>4.344505122482541</v>
+        <v>4.351488700304749</v>
       </c>
       <c r="E5">
-        <v>25.84335063841583</v>
+        <v>25.82994610474699</v>
       </c>
       <c r="F5">
-        <v>14.33602456342305</v>
+        <v>14.36470169057972</v>
       </c>
       <c r="G5">
-        <v>16.58759204640074</v>
+        <v>15.87463543714374</v>
       </c>
       <c r="H5">
-        <v>2.827993081032585</v>
+        <v>2.820072606393259</v>
       </c>
       <c r="I5">
-        <v>3.004106781072316</v>
+        <v>3.022768458833614</v>
       </c>
       <c r="J5">
-        <v>7.468296584838098</v>
+        <v>8.121017898578714</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.15919495393964</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.89875028856015</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.51534507396016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.54761460377048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.44599045461778</v>
+        <v>21.45573993257717</v>
       </c>
       <c r="C6">
-        <v>17.1477395099145</v>
+        <v>17.0293169940928</v>
       </c>
       <c r="D6">
-        <v>4.337610145294847</v>
+        <v>4.343741477508726</v>
       </c>
       <c r="E6">
-        <v>25.75814334685054</v>
+        <v>25.74523224132149</v>
       </c>
       <c r="F6">
-        <v>14.3070417547287</v>
+        <v>14.33793314356579</v>
       </c>
       <c r="G6">
-        <v>16.54157292607973</v>
+        <v>15.83072928599999</v>
       </c>
       <c r="H6">
-        <v>2.817333703477387</v>
+        <v>2.809712981757248</v>
       </c>
       <c r="I6">
-        <v>2.997752530180849</v>
+        <v>3.017624242570217</v>
       </c>
       <c r="J6">
-        <v>7.466531735767694</v>
+        <v>8.118350388387388</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.16377665182748</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.912622143919481</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.50396242496313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.53746846400247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.95011818084554</v>
+        <v>21.95651434515441</v>
       </c>
       <c r="C7">
-        <v>17.48906118498439</v>
+        <v>17.40016706691434</v>
       </c>
       <c r="D7">
-        <v>4.406189075387147</v>
+        <v>4.420925640432785</v>
       </c>
       <c r="E7">
-        <v>26.34214296732282</v>
+        <v>26.32530665308573</v>
       </c>
       <c r="F7">
-        <v>14.40549167911728</v>
+        <v>14.40896611517875</v>
       </c>
       <c r="G7">
-        <v>16.67167076656832</v>
+        <v>16.04240703020744</v>
       </c>
       <c r="H7">
-        <v>2.889788837289048</v>
+        <v>2.879776267152252</v>
       </c>
       <c r="I7">
-        <v>3.047518452872765</v>
+        <v>3.06136853918638</v>
       </c>
       <c r="J7">
-        <v>7.449997396925669</v>
+        <v>8.072565936660125</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.08279766281103</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.809707713386863</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11.50780622162791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.52412463829613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.04546603676564</v>
+        <v>24.03846657403392</v>
       </c>
       <c r="C8">
-        <v>18.8866024935737</v>
+        <v>18.92854964514143</v>
       </c>
       <c r="D8">
-        <v>4.690522809355331</v>
+        <v>4.734207405316068</v>
       </c>
       <c r="E8">
-        <v>28.78047383947306</v>
+        <v>28.74841703874404</v>
       </c>
       <c r="F8">
-        <v>14.88692443362921</v>
+        <v>14.80101924420523</v>
       </c>
       <c r="G8">
-        <v>17.32660797631234</v>
+        <v>16.85226207914813</v>
       </c>
       <c r="H8">
-        <v>3.198541521091568</v>
+        <v>3.178968972759548</v>
       </c>
       <c r="I8">
-        <v>3.259848095613293</v>
+        <v>3.248319531954053</v>
       </c>
       <c r="J8">
-        <v>7.394513752339019</v>
+        <v>7.962944407259144</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.769154888766453</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.395458061807766</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11.56688532108944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.52781649827589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.69068943106267</v>
+        <v>27.66026814782171</v>
       </c>
       <c r="C9">
-        <v>21.32469929479419</v>
+        <v>21.60472381761867</v>
       </c>
       <c r="D9">
-        <v>5.192344272724126</v>
+        <v>5.275646556654386</v>
       </c>
       <c r="E9">
-        <v>33.06231434471047</v>
+        <v>33.00433189592412</v>
       </c>
       <c r="F9">
-        <v>15.93661127717996</v>
+        <v>15.72350477535028</v>
       </c>
       <c r="G9">
-        <v>18.78672580604556</v>
+        <v>18.27192585879664</v>
       </c>
       <c r="H9">
-        <v>3.765419517248776</v>
+        <v>3.728929872917081</v>
       </c>
       <c r="I9">
-        <v>3.655536570143441</v>
+        <v>3.597817877355277</v>
       </c>
       <c r="J9">
-        <v>7.336692217406602</v>
+        <v>7.910041074233241</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.256020330337657</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.7629691432965</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.80026727962144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.67894646874659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.08497811692102</v>
+        <v>30.03719155380833</v>
       </c>
       <c r="C10">
-        <v>22.99212745937622</v>
+        <v>23.39303774349685</v>
       </c>
       <c r="D10">
-        <v>5.56513967588801</v>
+        <v>5.690531673435693</v>
       </c>
       <c r="E10">
-        <v>35.02854245354598</v>
+        <v>34.94990115917945</v>
       </c>
       <c r="F10">
-        <v>16.58518719758593</v>
+        <v>16.20159678573473</v>
       </c>
       <c r="G10">
-        <v>19.62868673524857</v>
+        <v>19.56755912450972</v>
       </c>
       <c r="H10">
-        <v>4.123256701469844</v>
+        <v>4.073457396053289</v>
       </c>
       <c r="I10">
-        <v>3.930700791938969</v>
+        <v>3.839796424858973</v>
       </c>
       <c r="J10">
-        <v>7.274215646088615</v>
+        <v>7.637774237903677</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.892646840727544</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.366522656441543</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11.90752534301663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.66078955332105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.08850755151312</v>
+        <v>31.03432032539217</v>
       </c>
       <c r="C11">
-        <v>23.73223063418276</v>
+        <v>24.00790206871286</v>
       </c>
       <c r="D11">
-        <v>5.995124407107162</v>
+        <v>6.149304689227209</v>
       </c>
       <c r="E11">
-        <v>28.42192591345545</v>
+        <v>28.32952674998434</v>
       </c>
       <c r="F11">
-        <v>15.68532594369589</v>
+        <v>15.19101501766956</v>
       </c>
       <c r="G11">
-        <v>17.84545526966589</v>
+        <v>18.93550309246969</v>
       </c>
       <c r="H11">
-        <v>4.482050210402945</v>
+        <v>4.432940131402807</v>
       </c>
       <c r="I11">
-        <v>4.008962683180909</v>
+        <v>3.90671339440337</v>
       </c>
       <c r="J11">
-        <v>6.893346941187526</v>
+        <v>6.959798720102778</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.654000239065249</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.907167938046864</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.03093165738382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.71676346112762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.45205902717799</v>
+        <v>31.39633860122741</v>
       </c>
       <c r="C12">
-        <v>23.95670196681503</v>
+        <v>24.11228633987967</v>
       </c>
       <c r="D12">
-        <v>6.276198644907367</v>
+        <v>6.435199597008738</v>
       </c>
       <c r="E12">
-        <v>22.47592924129516</v>
+        <v>22.37246516885656</v>
       </c>
       <c r="F12">
-        <v>14.81465348335978</v>
+        <v>14.3148656593798</v>
       </c>
       <c r="G12">
-        <v>16.2130817567549</v>
+        <v>17.90110881002284</v>
       </c>
       <c r="H12">
-        <v>5.293446111961521</v>
+        <v>5.252372615882358</v>
       </c>
       <c r="I12">
-        <v>4.020871531429817</v>
+        <v>3.91500680640682</v>
       </c>
       <c r="J12">
-        <v>6.598095808001752</v>
+        <v>6.630148578499</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.592815309234981</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.67657612313025</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10.29471426105722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>9.995213876002666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.35734449331418</v>
+        <v>31.30403395680899</v>
       </c>
       <c r="C13">
-        <v>23.86699348282068</v>
+        <v>23.89987712344603</v>
       </c>
       <c r="D13">
-        <v>6.474494527164371</v>
+        <v>6.610768271968564</v>
       </c>
       <c r="E13">
-        <v>16.57070914111621</v>
+        <v>16.45465502716245</v>
       </c>
       <c r="F13">
-        <v>13.84942719426261</v>
+        <v>13.46552567611707</v>
       </c>
       <c r="G13">
-        <v>14.47519720941341</v>
+        <v>16.17604635714832</v>
       </c>
       <c r="H13">
-        <v>6.319808816270026</v>
+        <v>6.287995904764157</v>
       </c>
       <c r="I13">
-        <v>3.98511991748434</v>
+        <v>3.88332441734838</v>
       </c>
       <c r="J13">
-        <v>6.338510098707636</v>
+        <v>6.527308202182224</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.613522325603794</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.620310711343531</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9.584382839375461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.390753630496953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.08273473371646</v>
+        <v>31.03279696986496</v>
       </c>
       <c r="C14">
-        <v>23.67373617993517</v>
+        <v>23.61722197249817</v>
       </c>
       <c r="D14">
-        <v>6.579815164225053</v>
+        <v>6.687321786396919</v>
       </c>
       <c r="E14">
-        <v>12.52357665561405</v>
+        <v>12.3933407681041</v>
       </c>
       <c r="F14">
-        <v>13.11593049031116</v>
+        <v>12.86710057332302</v>
       </c>
       <c r="G14">
-        <v>13.18141372486236</v>
+        <v>14.62968101165893</v>
       </c>
       <c r="H14">
-        <v>7.122888241335761</v>
+        <v>7.096945073436219</v>
       </c>
       <c r="I14">
-        <v>3.939921926757618</v>
+        <v>3.844611452253378</v>
       </c>
       <c r="J14">
-        <v>6.173942943001676</v>
+        <v>6.530387405676917</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.654340901610494</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.673189463239256</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9.098278101669512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.014684713268473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.91629240247375</v>
+        <v>30.86804312040784</v>
       </c>
       <c r="C15">
-        <v>23.57473803519441</v>
+        <v>23.49444738831041</v>
       </c>
       <c r="D15">
-        <v>6.590194168484063</v>
+        <v>6.685141478918694</v>
       </c>
       <c r="E15">
-        <v>11.55626300688636</v>
+        <v>11.42284806821018</v>
       </c>
       <c r="F15">
-        <v>12.90743096402307</v>
+        <v>12.7147009319492</v>
       </c>
       <c r="G15">
-        <v>12.82519195643579</v>
+        <v>14.09985446904254</v>
       </c>
       <c r="H15">
-        <v>7.308094233308415</v>
+        <v>7.283776556386824</v>
       </c>
       <c r="I15">
-        <v>3.918919256738418</v>
+        <v>3.8273114432425</v>
       </c>
       <c r="J15">
-        <v>6.139409968822757</v>
+        <v>6.561877585767503</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.671310717219448</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.717033826358645</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8.98035550678498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>8.938603639340975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.95509902811964</v>
+        <v>29.91518879867259</v>
       </c>
       <c r="C16">
-        <v>22.93020829018178</v>
+        <v>22.83851457984592</v>
       </c>
       <c r="D16">
-        <v>6.41212053679766</v>
+        <v>6.462336981791242</v>
       </c>
       <c r="E16">
-        <v>11.45572481611468</v>
+        <v>11.34088771634346</v>
       </c>
       <c r="F16">
-        <v>12.75993824467024</v>
+        <v>12.75273684231119</v>
       </c>
       <c r="G16">
-        <v>12.68364153233652</v>
+        <v>13.03224414133618</v>
       </c>
       <c r="H16">
-        <v>7.033609745661278</v>
+        <v>7.012789611194044</v>
       </c>
       <c r="I16">
-        <v>3.81082215190402</v>
+        <v>3.736052131756392</v>
       </c>
       <c r="J16">
-        <v>6.217388803182661</v>
+        <v>6.875758011210848</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.732012413791383</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.962608257717656</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9.061907565810005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>9.141100820262229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.3537410237524</v>
+        <v>29.31824960058695</v>
       </c>
       <c r="C17">
-        <v>22.53493542940276</v>
+        <v>22.48000861515488</v>
       </c>
       <c r="D17">
-        <v>6.214455515410465</v>
+        <v>6.251594847149342</v>
       </c>
       <c r="E17">
-        <v>13.55920551217062</v>
+        <v>13.46525335349165</v>
       </c>
       <c r="F17">
-        <v>13.04981241829007</v>
+        <v>13.08968557707916</v>
       </c>
       <c r="G17">
-        <v>13.28918198279149</v>
+        <v>13.19510972625685</v>
       </c>
       <c r="H17">
-        <v>6.346221477131275</v>
+        <v>6.325430628953881</v>
       </c>
       <c r="I17">
-        <v>3.751464664582357</v>
+        <v>3.685846199565204</v>
       </c>
       <c r="J17">
-        <v>6.362474475359046</v>
+        <v>7.112567374980992</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.779576999520176</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.11177089134858</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9.380137592633959</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>9.482951783500413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.00927366881725</v>
+        <v>28.97544857683282</v>
       </c>
       <c r="C18">
-        <v>22.28248236053889</v>
+        <v>22.31753448202301</v>
       </c>
       <c r="D18">
-        <v>5.974725026650543</v>
+        <v>6.017678493275382</v>
       </c>
       <c r="E18">
-        <v>18.10673374423519</v>
+        <v>18.03012503725481</v>
       </c>
       <c r="F18">
-        <v>13.76461217777159</v>
+        <v>13.77007474489035</v>
       </c>
       <c r="G18">
-        <v>14.63581902591177</v>
+        <v>14.28639471754406</v>
       </c>
       <c r="H18">
-        <v>5.31329654503956</v>
+        <v>5.288956634209724</v>
       </c>
       <c r="I18">
-        <v>3.727874383940316</v>
+        <v>3.664987852078817</v>
       </c>
       <c r="J18">
-        <v>6.58998043852869</v>
+        <v>7.353968141113647</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.836412887891845</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.218403876415183</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9.956302146282571</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.02562775943531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.90336748730719</v>
+        <v>28.86869995488629</v>
       </c>
       <c r="C19">
-        <v>22.25095135348088</v>
+        <v>22.40957373861869</v>
       </c>
       <c r="D19">
-        <v>5.734146315088593</v>
+        <v>5.793447748962286</v>
       </c>
       <c r="E19">
-        <v>24.36774203702511</v>
+        <v>24.29974835082643</v>
       </c>
       <c r="F19">
-        <v>14.70599633118078</v>
+        <v>14.63089193318155</v>
       </c>
       <c r="G19">
-        <v>16.36823367356753</v>
+        <v>15.85531890250682</v>
       </c>
       <c r="H19">
-        <v>4.33533464748454</v>
+        <v>4.303444349755303</v>
       </c>
       <c r="I19">
-        <v>3.745109719582554</v>
+        <v>3.681418457580592</v>
       </c>
       <c r="J19">
-        <v>6.85820769945153</v>
+        <v>7.592033937806619</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.908530575034481</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.319034592369279</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10.6681312304392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.66977189201239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.47377013377908</v>
+        <v>29.4312423150386</v>
       </c>
       <c r="C20">
-        <v>22.69314825844535</v>
+        <v>23.0664962908195</v>
       </c>
       <c r="D20">
-        <v>5.488303291882304</v>
+        <v>5.590660804214831</v>
       </c>
       <c r="E20">
-        <v>34.48329023601775</v>
+        <v>34.41158772285694</v>
       </c>
       <c r="F20">
-        <v>16.31896271246362</v>
+        <v>16.03903516175363</v>
       </c>
       <c r="G20">
-        <v>19.23487156221708</v>
+        <v>18.77688460682909</v>
       </c>
       <c r="H20">
-        <v>4.02742496604985</v>
+        <v>3.982081752518433</v>
       </c>
       <c r="I20">
-        <v>3.86521596015367</v>
+        <v>3.78719320016027</v>
       </c>
       <c r="J20">
-        <v>7.259032155573136</v>
+        <v>7.810512192458644</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.969859236869961</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.43824816592052</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.80064615293186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.6344324995064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.22842156016629</v>
+        <v>31.1687000632204</v>
       </c>
       <c r="C21">
-        <v>23.90392637805473</v>
+        <v>24.3459324854606</v>
       </c>
       <c r="D21">
-        <v>5.714054201310685</v>
+        <v>5.90985770466</v>
       </c>
       <c r="E21">
-        <v>37.26413422240435</v>
+        <v>37.16917930968855</v>
       </c>
       <c r="F21">
-        <v>17.05361378185929</v>
+        <v>16.34476538902933</v>
       </c>
       <c r="G21">
-        <v>20.31128866387915</v>
+        <v>21.63875673739973</v>
       </c>
       <c r="H21">
-        <v>4.352591766055582</v>
+        <v>4.291874813083576</v>
       </c>
       <c r="I21">
-        <v>4.081460221034091</v>
+        <v>3.970473735835258</v>
       </c>
       <c r="J21">
-        <v>7.287484682002783</v>
+        <v>7.04625919929906</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.708984425745957</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.140543247431936</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.07865616815129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.57426224996146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.32397072905254</v>
+        <v>32.25324342424912</v>
       </c>
       <c r="C22">
-        <v>24.61672811822529</v>
+        <v>25.09181448112611</v>
       </c>
       <c r="D22">
-        <v>5.864805882272915</v>
+        <v>6.123032460161861</v>
       </c>
       <c r="E22">
-        <v>38.57421867878686</v>
+        <v>38.46440198162634</v>
       </c>
       <c r="F22">
-        <v>17.50211817986922</v>
+        <v>16.50237787634159</v>
       </c>
       <c r="G22">
-        <v>20.95477067820832</v>
+        <v>23.51852787078435</v>
       </c>
       <c r="H22">
-        <v>4.542700591893906</v>
+        <v>4.472290180967333</v>
       </c>
       <c r="I22">
-        <v>4.215641380066232</v>
+        <v>4.082741674530249</v>
       </c>
       <c r="J22">
-        <v>7.302911724687116</v>
+        <v>6.578673945817126</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.55398193949002</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.96037234513266</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.24605613366855</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.50573085678915</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.74421416293346</v>
+        <v>31.67974105647237</v>
       </c>
       <c r="C23">
-        <v>24.19228152459868</v>
+        <v>24.65808181566118</v>
       </c>
       <c r="D23">
-        <v>5.778517456713749</v>
+        <v>5.99574249914828</v>
       </c>
       <c r="E23">
-        <v>37.88034130761246</v>
+        <v>37.77927312484115</v>
       </c>
       <c r="F23">
-        <v>17.29421513419507</v>
+        <v>16.48603000058507</v>
       </c>
       <c r="G23">
-        <v>20.6675785773793</v>
+        <v>22.36903980593763</v>
       </c>
       <c r="H23">
-        <v>4.441820661558571</v>
+        <v>4.377111768562714</v>
       </c>
       <c r="I23">
-        <v>4.141699956533204</v>
+        <v>4.020076174881594</v>
       </c>
       <c r="J23">
-        <v>7.304773201528931</v>
+        <v>6.897365598096276</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.643545610080377</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4.08407114865037</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.18176072192652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.5964608293041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.44742025280999</v>
+        <v>29.40481565737765</v>
       </c>
       <c r="C24">
-        <v>22.6029035441166</v>
+        <v>22.99164985577013</v>
       </c>
       <c r="D24">
-        <v>5.450382278888321</v>
+        <v>5.554186278971694</v>
       </c>
       <c r="E24">
-        <v>35.14324409549264</v>
+        <v>35.07167968554252</v>
       </c>
       <c r="F24">
-        <v>16.46513466039658</v>
+        <v>16.17648531753608</v>
       </c>
       <c r="G24">
-        <v>19.50440261257738</v>
+        <v>19.01320982697176</v>
       </c>
       <c r="H24">
-        <v>4.052192209875827</v>
+        <v>4.006742130407708</v>
       </c>
       <c r="I24">
-        <v>3.862134910741645</v>
+        <v>3.782204631511994</v>
       </c>
       <c r="J24">
-        <v>7.306478259333707</v>
+        <v>7.856647547539152</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.998007387300259</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.486680160578774</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11.92001228895142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.7453550052376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.75330011522495</v>
+        <v>26.72938855783221</v>
       </c>
       <c r="C25">
-        <v>20.76934165124348</v>
+        <v>20.98944278284844</v>
       </c>
       <c r="D25">
-        <v>5.072226215374047</v>
+        <v>5.140012887540628</v>
       </c>
       <c r="E25">
-        <v>31.95662548418413</v>
+        <v>31.90620893577462</v>
       </c>
       <c r="F25">
-        <v>15.59422696141983</v>
+        <v>15.44174271541248</v>
       </c>
       <c r="G25">
-        <v>18.2872600944829</v>
+        <v>17.66528482941578</v>
       </c>
       <c r="H25">
-        <v>3.615614905082856</v>
+        <v>3.584079936301047</v>
       </c>
       <c r="I25">
-        <v>3.553517189760395</v>
+        <v>3.5101224482858</v>
       </c>
       <c r="J25">
-        <v>7.331838939511997</v>
+        <v>7.960924080337888</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.375867616809701</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4.900901671352409</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11.68665157718749</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.60890713421125</v>
       </c>
     </row>
   </sheetData>
